--- a/data/2FEB_25_26/teams_25_26_2FEB.xlsx
+++ b/data/2FEB_25_26/teams_25_26_2FEB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3103,178 +3103,85 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9610717275063801</v>
+        <v>0.9209008892200831</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8688035353143978</v>
+        <v>0.8606745822585438</v>
       </c>
       <c r="E29" t="n">
-        <v>107.2164737075765</v>
+        <v>106.6501591441768</v>
       </c>
       <c r="F29" t="n">
-        <v>99.40572464566075</v>
+        <v>96.86014181273472</v>
       </c>
       <c r="G29" t="n">
-        <v>7.810749061915788</v>
+        <v>9.79001733144208</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2823518120023969</v>
+        <v>0.3836001484254409</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6831510198653884</v>
+        <v>0.7203633887205729</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4941184339145986</v>
+        <v>0.5576652775633599</v>
       </c>
       <c r="K29" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L29" t="n">
-        <v>939</v>
+        <v>1022</v>
       </c>
       <c r="M29" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="N29" t="n">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="O29" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P29" t="n">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="Q29" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="R29" t="n">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="S29" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="T29" t="n">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="U29" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="V29" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W29" t="n">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="X29" t="n">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y29" t="n">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="Z29" t="n">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="AA29" t="n">
-        <v>977.5599999999999</v>
+        <v>1071.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>876.5599999999999</v>
+        <v>954.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>UEMC CBC VALLADOLID</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Liga Regular "OESTE"</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.880730050933786</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.8525456292026897</v>
-      </c>
-      <c r="E30" t="n">
-        <v>106.0838445807771</v>
-      </c>
-      <c r="F30" t="n">
-        <v>94.31455897980871</v>
-      </c>
-      <c r="G30" t="n">
-        <v>11.76928560096837</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6212121212121212</v>
-      </c>
-      <c r="K30" t="n">
-        <v>200</v>
-      </c>
-      <c r="L30" t="n">
-        <v>83</v>
-      </c>
-      <c r="M30" t="n">
-        <v>20</v>
-      </c>
-      <c r="N30" t="n">
-        <v>42</v>
-      </c>
-      <c r="O30" t="n">
-        <v>10</v>
-      </c>
-      <c r="P30" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>13</v>
-      </c>
-      <c r="R30" t="n">
-        <v>21</v>
-      </c>
-      <c r="S30" t="n">
-        <v>16</v>
-      </c>
-      <c r="T30" t="n">
-        <v>25</v>
-      </c>
-      <c r="U30" t="n">
-        <v>11</v>
-      </c>
-      <c r="V30" t="n">
-        <v>5</v>
-      </c>
-      <c r="W30" t="n">
-        <v>15</v>
-      </c>
-      <c r="X30" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>71</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>94.24000000000001</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>78.24000000000001</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
